--- a/SampleData/sample_train.xlsx
+++ b/SampleData/sample_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkawa\vscode-workspace\python_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F59B863B-AB3E-4CCA-872F-BFD8EA1676D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C7DA3D-B9D7-4164-9945-509C73A2A827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F2B5D59-0539-4ACB-A127-D9AA078ACAAE}"/>
   </bookViews>
@@ -217,15 +217,9 @@
     <t>Query for user details is returning multiple records unexpectedly.</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>データ integrity issues detected in the user table.</t>
   </si>
   <si>
-    <t>The database backup process is failing intermittently.</t>
-  </si>
-  <si>
     <t>Missing indexes are causing slow query performance.</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>The 「注文履歴」 table has incorrect foreign key constraints.</t>
   </si>
   <si>
-    <t>Database queries hang during nightly batch processing.</t>
-  </si>
-  <si>
     <t>The `created_at` field defaults to NULL instead of current timestamp.</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
     <t>The 「顧客」 table has inconsistent encoding for Japanese names.</t>
   </si>
   <si>
-    <t>The backup job fails when the database exceeds 50GB.</t>
-  </si>
-  <si>
     <t>Stored procedures do not handle transaction rollbacks properly.</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>The 「在庫」 table does not enforce positive integer values.</t>
   </si>
   <si>
-    <t>Database triggers are firing multiple times for single events.</t>
-  </si>
-  <si>
     <t>The replication lag between primary and replica exceeds 5 minutes.</t>
   </si>
   <si>
@@ -280,9 +265,6 @@
     <t>The `VARCHAR(255)` fields truncate multilingual text.</t>
   </si>
   <si>
-    <t>The database connection pool exhausts under heavy load.</t>
-  </si>
-  <si>
     <t>The 「従業員」 table has orphaned records after deletions.</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>The 「設定」 table lacks a versioning mechanism for updates.</t>
   </si>
   <si>
-    <t>The database does not enforce SSL connections.</t>
-  </si>
-  <si>
     <t>Internal tool is crashing when loading 大きな datasets.</t>
   </si>
   <si>
@@ -377,6 +356,27 @@
   </si>
   <si>
     <t>The 「ドキュメント」 portal is not searchable by error codes.</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>The DB backup process is failing intermittently.</t>
+  </si>
+  <si>
+    <t>DB queries hang during nightly batch processing.</t>
+  </si>
+  <si>
+    <t>The backup job fails when the DB exceeds 50GB.</t>
+  </si>
+  <si>
+    <t>DB triggers are firing multiple times for single events.</t>
+  </si>
+  <si>
+    <t>The DB connection pool exhausts under heavy load.</t>
+  </si>
+  <si>
+    <t>The DB does not enforce SSL connections.</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33642DA9-25A5-47E5-B5B6-9D9EF686C666}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1847,423 +1849,423 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
